--- a/medicine/Enfance/Gabrielle_Lord/Gabrielle_Lord.xlsx
+++ b/medicine/Enfance/Gabrielle_Lord/Gabrielle_Lord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gabrielle Lord, née le 26 février 1946 à Sydney, est une femme de lettres australienne, auteure de roman policier, de thriller psychologique et de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gabrielle Lord fait ses études à l'université de Nouvelle-Angleterre à Armidale. Elle travaille comme enseignante et fonctionnaire auprès du Commonwealth Employment Service.
 En 1980, elle publie son premier roman, Fortress. Ce roman est adapté pour la télévision en 1986, L'École de tous les dangers (Fortress)).
@@ -548,17 +562,101 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Gemma Lincoln
-Feeding the Demons (1999),
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Gemma Lincoln</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Feeding the Demons (1999),
 Baby Did a Bad Bad Thing (2002)
 Spiking the Girl (2004)
-Shattered (2007)
-Série Jack McCain
-Death Delights (2001)
-Dirty Weekend (2005)
-Série Conspiracy 365
-January (2010) Publié en français sous le titre Janvier, Paris, Rageot (2009)  (ISBN 978-2-7002-3408-4), réédition, Paris, Rageot, coll. « Rageot poche » (2012)  (ISBN 978-2-7002-3682-8)
+Shattered (2007)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gabrielle_Lord</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gabrielle_Lord</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Jack McCain</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Death Delights (2001)
+Dirty Weekend (2005)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gabrielle_Lord</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gabrielle_Lord</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Conspiracy 365</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>January (2010) Publié en français sous le titre Janvier, Paris, Rageot (2009)  (ISBN 978-2-7002-3408-4), réédition, Paris, Rageot, coll. « Rageot poche » (2012)  (ISBN 978-2-7002-3682-8)
 February (2010) Publié en français sous le titre Février, Paris, Rageot (2009)  (ISBN 978-2-7002-3409-1) ; réédition, Paris, Rageot, coll. « Rageot poche » (2012)  (ISBN 978-2-7002-3683-5)
 March (2010) Publié en français sous le titre Mars, Paris, Rageot (2010)  (ISBN 978-2-7002-3410-7) ; réédition, Paris, Rageot, coll. « Rageot poche » (2012)  (ISBN 978-2-7002-3684-2)
 April (2010) Publié en français sous le titre Avril, Paris, Rageot (2010)  (ISBN 978-2-7002-3411-4) ; réédition, Paris, Rageot, coll. « Rageot poche » (2013)  (ISBN 978-2-7002-3685-9)
@@ -571,15 +669,129 @@
 November (2010) Publié en français sous le titre Novembre, Paris, Rageot (2010)  (ISBN 978-2-7002-3746-7) ; réédition, Paris, Rageot, coll. « Rageot poche » (2013)  (ISBN 978-2-7002-3767-2)
 December (2010) Publié en français sous le titre Décembre, Paris, Rageot (2010)  (ISBN 978-2-7002-3747-4) ; réédition, Paris, Rageot, coll. « Rageot poche » (2013)  (ISBN 978-2-7002-3768-9)
 Revenge (2011)
-Malice (2012)
-Série Conspiracy 365: Black Ops
-Missing (2013)
+Malice (2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gabrielle_Lord</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gabrielle_Lord</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Conspiracy 365: Black Ops</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Missing (2013)
 Hunted (2013)
-Endgame (2013)
-Série 48 Hours
-The Vanishing (2017)
-Autres romans
-Fortress (1980)
+Endgame (2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gabrielle_Lord</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gabrielle_Lord</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série 48 Hours</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>The Vanishing (2017)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gabrielle_Lord</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gabrielle_Lord</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Fortress (1980)
 Tooth and Claw (1983)
 Bec et Ongles, Éditions Gallimard, coll. « Du monde entier » (1987)  (ISBN 2-07-070436-X)
 Jumbo (1986)
@@ -592,68 +804,109 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Gabrielle_Lord</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gabrielle_Lord</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gabrielle_Lord</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gabrielle_Lord</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Prix Ned-Kelly 2002 du meilleur roman pour Death Delights[1]
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Prix Ned-Kelly 2002 du meilleur roman pour Death Delights
 Davitt Award (en) 2003 du meilleur roman pour Baby Did a Bad Thing
-Prix Ned-Kelly Lifetime Achievement 2012[1]
-Nominations
-Prix Ned-Kelly 1999 du meilleur premier roman pour The Sharp End[1]
-Prix Ned-Kelly 2003 du meilleur roman pour Baby Did a Bad Bad Thing[1]
-Prix Ned-Kelly 2005 du meilleur roman pour Spiking the Girl[1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Gabrielle_Lord</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gabrielle_Lord</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+Prix Ned-Kelly Lifetime Achievement 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gabrielle_Lord</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gabrielle_Lord</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Prix Ned-Kelly 1999 du meilleur premier roman pour The Sharp End
+Prix Ned-Kelly 2003 du meilleur roman pour Baby Did a Bad Bad Thing
+Prix Ned-Kelly 2005 du meilleur roman pour Spiking the Girl</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gabrielle_Lord</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gabrielle_Lord</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>1986 : L'École de tous les dangers (Fortress), téléfilm australien réalisé par Arch Nicholson, adaptation du roman éponyme
 1996 : Whipping Boy, film australien réalisé par Di Drew, adaptation du roman éponyme</t>
